--- a/Assets/Excel/Shop.xlsx
+++ b/Assets/Excel/Shop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35738FD-3404-4D7B-A4E1-B2DE37CE8210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488726FD-5F8C-4B93-9767-B406032E2379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="3390" windowWidth="25290" windowHeight="11685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="ShopTypeInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,7 +140,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存数量</t>
+    <t>itemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5,6,7,8,9,10,11,12,13,14,15,16}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认库存数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopBagId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100,100,100,100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,2,3,4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3,9,27,3,9,27,3,9,27,3,9,27}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,17 +526,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5000</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>10000</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B131C6-5FD5-4B5D-9E18-140101DA1C33}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -483,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -500,16 +969,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -521,289 +990,48 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>800</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5000</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>10000</v>
-      </c>
-      <c r="E11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1000</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5000</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>10000</v>
-      </c>
-      <c r="E14">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1000</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>5000</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>10000</v>
-      </c>
-      <c r="E17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>5000</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>10000</v>
-      </c>
-      <c r="E20">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Shop.xlsx
+++ b/Assets/Excel/Shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488726FD-5F8C-4B93-9767-B406032E2379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063949B-4D36-40E2-9A8B-0812E77CC493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3390" windowWidth="25290" windowHeight="11685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItemInfo" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F11">
         <v>27</v>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F14">
         <v>27</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F17">
         <v>27</v>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F20">
         <v>27</v>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B131C6-5FD5-4B5D-9E18-140101DA1C33}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
